--- a/biology/Zoologie/Echinorhinus_cookei/Echinorhinus_cookei.xlsx
+++ b/biology/Zoologie/Echinorhinus_cookei/Echinorhinus_cookei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinorhinus cookei
-Echinorhinus cookei, communément appelé le Squale bouclé du Pacifique[2], est une espèce de requins de la famille des Echinorhinidae, cette dernière classée selon les sources soit dans l'ordre des Squaliformes[3], soit dans celui des Echinorhiniformes[1] dont elle est alors la seule famille.
+Echinorhinus cookei, communément appelé le Squale bouclé du Pacifique, est une espèce de requins de la famille des Echinorhinidae, cette dernière classée selon les sources soit dans l'ordre des Squaliformes, soit dans celui des Echinorhiniformes dont elle est alors la seule famille.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Echinorhinus cookei a été décrite en 1928 par le zoologiste et ichtyologiste autrichien Viktor Pietschmann (1881-1956)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Echinorhinus cookei a été décrite en 1928 par le zoologiste et ichtyologiste autrichien Viktor Pietschmann (1881-1956).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinorhinus cookei se rencontre dans l'océan Pacifique (Japon, Taïwan, Palaos, Australie, Nouvelle-Zélande, Hawaï, golfe de Californie, et depuis le Costa-Rica jusqu'au Pérou et le Chili mais également mentionné au Nicaragua)[2] et ce aux profondeurs comprises entre 11 et 1 100 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinorhinus cookei se rencontre dans l'océan Pacifique (Japon, Taïwan, Palaos, Australie, Nouvelle-Zélande, Hawaï, golfe de Californie, et depuis le Costa-Rica jusqu'au Pérou et le Chili mais également mentionné au Nicaragua) et ce aux profondeurs comprises entre 11 et 1 100 m de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinorhinus cookei peut mesurer jusqu'à 400 cm[2] et sa maturité sexuelle serait acquise lorsqu'il mesure entre 250 et 300 cm[2]. Les petits mesurent entre 40 et 45 cm à la naissance[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinorhinus cookei peut mesurer jusqu'à 400 cm et sa maturité sexuelle serait acquise lorsqu'il mesure entre 250 et 300 cm. Les petits mesurent entre 40 et 45 cm à la naissance.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, cookei, lui a été donnée en l'honneur du malacologiste américain Charles Montague Cooke Jr (1874–1948) du musée Bishop à Honolulu pour son aide précieuse[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, cookei, lui a été donnée en l'honneur du malacologiste américain Charles Montague Cooke Jr (1874–1948) du musée Bishop à Honolulu pour son aide précieuse.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Viktor Pietschmann, « Neue Fischarten aus dem Pazifischen Ozean », Anzeiger der Kaiserlichen Akademie der Wissenschaften, Vienne, vol. 65, no 27,‎ 1928, p. 297-298 (ISSN 1023-4748).</t>
         </is>
